--- a/paczka-makra/paczka makra/Book1Done2DoneTest.xlsx
+++ b/paczka-makra/paczka makra/Book1Done2DoneTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Python\HellowExcel3\paczka-makra\paczka makra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F732380-8DDC-41F2-B3D6-5331A50F8B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6597B76-BE26-4AF2-818C-B5545C2AA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="18">
   <si>
     <t>Ilość</t>
   </si>
@@ -63,12 +63,24 @@
   <si>
     <t>2_Side_Wall</t>
   </si>
+  <si>
+    <t>Tekst oper.10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>po sklejeniu na 28mm sciac na 2500 x 580</t>
+  </si>
+  <si>
+    <t>po sklejeniu na 36mm sciac na 2500 x 580</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +98,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,9 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -159,8 +180,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,9 +244,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A47FF3-A342-416C-8978-B64A63477666}" name="TABELA_2" displayName="TABELA_2" ref="A2:G8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:G8" xr:uid="{E1A47FF3-A342-416C-8978-B64A63477666}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A47FF3-A342-416C-8978-B64A63477666}" name="TABELA_2" displayName="TABELA_2" ref="A2:H300" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:H300" xr:uid="{E1A47FF3-A342-416C-8978-B64A63477666}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EF2E4052-2768-44ED-A0B1-0DC33C7EC23C}" name="Ilość"/>
     <tableColumn id="2" xr3:uid="{0F0E4BB2-EB78-4BA6-B470-FA167B1BBFB1}" name="Wym.A"/>
     <tableColumn id="3" xr3:uid="{F14A9486-767E-4AF3-B826-32AA19CEECF2}" name="Wym.B"/>
@@ -233,6 +254,7 @@
     <tableColumn id="6" xr3:uid="{4D784226-5F60-40D6-B384-6B69D6AB6C60}" name="Grubość"/>
     <tableColumn id="17" xr3:uid="{7EE3C81A-7F9B-4582-AE20-2151245684B2}" name="Tekst oper.2"/>
     <tableColumn id="24" xr3:uid="{68128150-0826-4DA5-A25C-2E54E3A05FFD}" name="Tekst oper.9"/>
+    <tableColumn id="4" xr3:uid="{4BCB0237-5E63-4533-ADC0-50F190DB31D9}" name="Tekst oper.10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,10 +546,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,28 +561,30 @@
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -575,11 +599,14 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -598,8 +625,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -618,8 +648,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -638,8 +671,11 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -658,8 +694,11 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -678,8 +717,11 @@
       <c r="F7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -697,14 +739,6734 @@
       </c>
       <c r="F8" t="s">
         <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2500</v>
+      </c>
+      <c r="C9">
+        <v>580</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2500</v>
+      </c>
+      <c r="C10">
+        <v>580</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2500</v>
+      </c>
+      <c r="C11">
+        <v>580</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2500</v>
+      </c>
+      <c r="C12">
+        <v>580</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13">
+        <v>580</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2500</v>
+      </c>
+      <c r="C14">
+        <v>580</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2500</v>
+      </c>
+      <c r="C15">
+        <v>580</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2500</v>
+      </c>
+      <c r="C16">
+        <v>580</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2500</v>
+      </c>
+      <c r="C17">
+        <v>580</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2500</v>
+      </c>
+      <c r="C18">
+        <v>580</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2500</v>
+      </c>
+      <c r="C19">
+        <v>580</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2500</v>
+      </c>
+      <c r="C20">
+        <v>580</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2500</v>
+      </c>
+      <c r="C21">
+        <v>580</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+      <c r="C22">
+        <v>580</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2500</v>
+      </c>
+      <c r="C23">
+        <v>580</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2500</v>
+      </c>
+      <c r="C24">
+        <v>580</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2500</v>
+      </c>
+      <c r="C25">
+        <v>580</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2500</v>
+      </c>
+      <c r="C26">
+        <v>580</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2500</v>
+      </c>
+      <c r="C27">
+        <v>580</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2500</v>
+      </c>
+      <c r="C28">
+        <v>580</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2500</v>
+      </c>
+      <c r="C29">
+        <v>580</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2500</v>
+      </c>
+      <c r="C30">
+        <v>580</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2500</v>
+      </c>
+      <c r="C31">
+        <v>580</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2500</v>
+      </c>
+      <c r="C32">
+        <v>580</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2500</v>
+      </c>
+      <c r="C33">
+        <v>580</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2500</v>
+      </c>
+      <c r="C34">
+        <v>580</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2500</v>
+      </c>
+      <c r="C35">
+        <v>580</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2500</v>
+      </c>
+      <c r="C36">
+        <v>580</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2500</v>
+      </c>
+      <c r="C37">
+        <v>580</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2500</v>
+      </c>
+      <c r="C38">
+        <v>580</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2500</v>
+      </c>
+      <c r="C39">
+        <v>580</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2500</v>
+      </c>
+      <c r="C40">
+        <v>580</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>2500</v>
+      </c>
+      <c r="C41">
+        <v>580</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>2500</v>
+      </c>
+      <c r="C42">
+        <v>580</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2500</v>
+      </c>
+      <c r="C43">
+        <v>580</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2500</v>
+      </c>
+      <c r="C44">
+        <v>580</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>2500</v>
+      </c>
+      <c r="C45">
+        <v>580</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2500</v>
+      </c>
+      <c r="C46">
+        <v>580</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>2500</v>
+      </c>
+      <c r="C47">
+        <v>580</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>2500</v>
+      </c>
+      <c r="C48">
+        <v>580</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>2500</v>
+      </c>
+      <c r="C49">
+        <v>580</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>2500</v>
+      </c>
+      <c r="C50">
+        <v>580</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2500</v>
+      </c>
+      <c r="C51">
+        <v>580</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2500</v>
+      </c>
+      <c r="C52">
+        <v>580</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>580</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>2500</v>
+      </c>
+      <c r="C54">
+        <v>580</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>2500</v>
+      </c>
+      <c r="C55">
+        <v>580</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>2500</v>
+      </c>
+      <c r="C56">
+        <v>580</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>2500</v>
+      </c>
+      <c r="C57">
+        <v>580</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>2500</v>
+      </c>
+      <c r="C58">
+        <v>580</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>2500</v>
+      </c>
+      <c r="C59">
+        <v>580</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>2500</v>
+      </c>
+      <c r="C60">
+        <v>580</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>2500</v>
+      </c>
+      <c r="C61">
+        <v>580</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>2500</v>
+      </c>
+      <c r="C62">
+        <v>580</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>2500</v>
+      </c>
+      <c r="C63">
+        <v>580</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>2500</v>
+      </c>
+      <c r="C64">
+        <v>580</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>2500</v>
+      </c>
+      <c r="C65">
+        <v>580</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>2500</v>
+      </c>
+      <c r="C66">
+        <v>580</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>2500</v>
+      </c>
+      <c r="C67">
+        <v>580</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>2500</v>
+      </c>
+      <c r="C68">
+        <v>580</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>2500</v>
+      </c>
+      <c r="C69">
+        <v>580</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>2500</v>
+      </c>
+      <c r="C70">
+        <v>580</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>2500</v>
+      </c>
+      <c r="C71">
+        <v>580</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>2500</v>
+      </c>
+      <c r="C72">
+        <v>580</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>2500</v>
+      </c>
+      <c r="C73">
+        <v>580</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2500</v>
+      </c>
+      <c r="C74">
+        <v>580</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>2500</v>
+      </c>
+      <c r="C75">
+        <v>580</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>2500</v>
+      </c>
+      <c r="C76">
+        <v>580</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>2500</v>
+      </c>
+      <c r="C77">
+        <v>580</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>2500</v>
+      </c>
+      <c r="C78">
+        <v>580</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>2500</v>
+      </c>
+      <c r="C79">
+        <v>580</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>2500</v>
+      </c>
+      <c r="C80">
+        <v>580</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>2500</v>
+      </c>
+      <c r="C81">
+        <v>580</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>2500</v>
+      </c>
+      <c r="C82">
+        <v>580</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>2500</v>
+      </c>
+      <c r="C83">
+        <v>580</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>2500</v>
+      </c>
+      <c r="C84">
+        <v>580</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>2500</v>
+      </c>
+      <c r="C85">
+        <v>580</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>2500</v>
+      </c>
+      <c r="C86">
+        <v>580</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>2500</v>
+      </c>
+      <c r="C87">
+        <v>580</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>2500</v>
+      </c>
+      <c r="C88">
+        <v>580</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>2500</v>
+      </c>
+      <c r="C89">
+        <v>580</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>2500</v>
+      </c>
+      <c r="C90">
+        <v>580</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>2500</v>
+      </c>
+      <c r="C91">
+        <v>580</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>2500</v>
+      </c>
+      <c r="C92">
+        <v>580</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>2500</v>
+      </c>
+      <c r="C93">
+        <v>580</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>2500</v>
+      </c>
+      <c r="C94">
+        <v>580</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>2500</v>
+      </c>
+      <c r="C95">
+        <v>580</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>2500</v>
+      </c>
+      <c r="C96">
+        <v>580</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>2500</v>
+      </c>
+      <c r="C97">
+        <v>580</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>2500</v>
+      </c>
+      <c r="C98">
+        <v>580</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>2500</v>
+      </c>
+      <c r="C99">
+        <v>580</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>2500</v>
+      </c>
+      <c r="C100">
+        <v>580</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>2500</v>
+      </c>
+      <c r="C101">
+        <v>580</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>2500</v>
+      </c>
+      <c r="C102">
+        <v>580</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>2500</v>
+      </c>
+      <c r="C103">
+        <v>580</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>2500</v>
+      </c>
+      <c r="C104">
+        <v>580</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>2500</v>
+      </c>
+      <c r="C105">
+        <v>580</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>2500</v>
+      </c>
+      <c r="C106">
+        <v>580</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>2500</v>
+      </c>
+      <c r="C107">
+        <v>580</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>2500</v>
+      </c>
+      <c r="C108">
+        <v>580</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>2500</v>
+      </c>
+      <c r="C109">
+        <v>580</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>2500</v>
+      </c>
+      <c r="C110">
+        <v>580</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>2500</v>
+      </c>
+      <c r="C111">
+        <v>580</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2500</v>
+      </c>
+      <c r="C112">
+        <v>580</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>2500</v>
+      </c>
+      <c r="C113">
+        <v>580</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113">
+        <v>18</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>2500</v>
+      </c>
+      <c r="C114">
+        <v>580</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>2500</v>
+      </c>
+      <c r="C115">
+        <v>580</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>2500</v>
+      </c>
+      <c r="C116">
+        <v>580</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>2500</v>
+      </c>
+      <c r="C117">
+        <v>580</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>2500</v>
+      </c>
+      <c r="C118">
+        <v>580</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>18</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>2500</v>
+      </c>
+      <c r="C119">
+        <v>580</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>18</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>2500</v>
+      </c>
+      <c r="C120">
+        <v>580</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>18</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>2500</v>
+      </c>
+      <c r="C121">
+        <v>580</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>18</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>2500</v>
+      </c>
+      <c r="C122">
+        <v>580</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>18</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>2500</v>
+      </c>
+      <c r="C123">
+        <v>580</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>2500</v>
+      </c>
+      <c r="C124">
+        <v>580</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124">
+        <v>18</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>2500</v>
+      </c>
+      <c r="C125">
+        <v>580</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>18</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>2500</v>
+      </c>
+      <c r="C126">
+        <v>580</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>18</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>2500</v>
+      </c>
+      <c r="C127">
+        <v>580</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>2500</v>
+      </c>
+      <c r="C128">
+        <v>580</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128">
+        <v>18</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>2500</v>
+      </c>
+      <c r="C129">
+        <v>580</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>2500</v>
+      </c>
+      <c r="C130">
+        <v>580</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>18</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>2500</v>
+      </c>
+      <c r="C131">
+        <v>580</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>18</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>2500</v>
+      </c>
+      <c r="C132">
+        <v>580</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>18</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>2500</v>
+      </c>
+      <c r="C133">
+        <v>580</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>18</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>2500</v>
+      </c>
+      <c r="C134">
+        <v>580</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <v>18</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>2500</v>
+      </c>
+      <c r="C135">
+        <v>580</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135">
+        <v>18</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>2500</v>
+      </c>
+      <c r="C136">
+        <v>580</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136">
+        <v>18</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>2500</v>
+      </c>
+      <c r="C137">
+        <v>580</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137">
+        <v>18</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>2500</v>
+      </c>
+      <c r="C138">
+        <v>580</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>2500</v>
+      </c>
+      <c r="C139">
+        <v>580</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>2500</v>
+      </c>
+      <c r="C140">
+        <v>580</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>2500</v>
+      </c>
+      <c r="C141">
+        <v>580</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>2500</v>
+      </c>
+      <c r="C142">
+        <v>580</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>2500</v>
+      </c>
+      <c r="C143">
+        <v>580</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>2500</v>
+      </c>
+      <c r="C144">
+        <v>580</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>18</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>2500</v>
+      </c>
+      <c r="C145">
+        <v>580</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>2500</v>
+      </c>
+      <c r="C146">
+        <v>580</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>2500</v>
+      </c>
+      <c r="C147">
+        <v>580</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>2500</v>
+      </c>
+      <c r="C148">
+        <v>580</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>18</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>2500</v>
+      </c>
+      <c r="C149">
+        <v>580</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149">
+        <v>18</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>2500</v>
+      </c>
+      <c r="C150">
+        <v>580</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>2500</v>
+      </c>
+      <c r="C151">
+        <v>580</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>18</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>2500</v>
+      </c>
+      <c r="C152">
+        <v>580</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>2500</v>
+      </c>
+      <c r="C153">
+        <v>580</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153">
+        <v>18</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>2500</v>
+      </c>
+      <c r="C154">
+        <v>580</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>18</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>2500</v>
+      </c>
+      <c r="C155">
+        <v>580</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>2500</v>
+      </c>
+      <c r="C156">
+        <v>580</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>18</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>2500</v>
+      </c>
+      <c r="C157">
+        <v>580</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>18</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>2500</v>
+      </c>
+      <c r="C158">
+        <v>580</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>18</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>2500</v>
+      </c>
+      <c r="C159">
+        <v>580</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>2500</v>
+      </c>
+      <c r="C160">
+        <v>580</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160">
+        <v>18</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>2500</v>
+      </c>
+      <c r="C161">
+        <v>580</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>18</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>2500</v>
+      </c>
+      <c r="C162">
+        <v>580</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>18</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>2500</v>
+      </c>
+      <c r="C163">
+        <v>580</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163">
+        <v>18</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>2500</v>
+      </c>
+      <c r="C164">
+        <v>580</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164">
+        <v>18</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>2500</v>
+      </c>
+      <c r="C165">
+        <v>580</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165">
+        <v>18</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>2500</v>
+      </c>
+      <c r="C166">
+        <v>580</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166">
+        <v>18</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>2500</v>
+      </c>
+      <c r="C167">
+        <v>580</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="F167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>2500</v>
+      </c>
+      <c r="C168">
+        <v>580</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>2500</v>
+      </c>
+      <c r="C169">
+        <v>580</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169">
+        <v>18</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>2500</v>
+      </c>
+      <c r="C170">
+        <v>580</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170">
+        <v>18</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>2500</v>
+      </c>
+      <c r="C171">
+        <v>580</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171">
+        <v>18</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>2500</v>
+      </c>
+      <c r="C172">
+        <v>580</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172">
+        <v>18</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>2500</v>
+      </c>
+      <c r="C173">
+        <v>580</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173">
+        <v>18</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>2500</v>
+      </c>
+      <c r="C174">
+        <v>580</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174">
+        <v>18</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>2500</v>
+      </c>
+      <c r="C175">
+        <v>580</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175">
+        <v>18</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>2500</v>
+      </c>
+      <c r="C176">
+        <v>580</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>2500</v>
+      </c>
+      <c r="C177">
+        <v>580</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177">
+        <v>18</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>2500</v>
+      </c>
+      <c r="C178">
+        <v>580</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178">
+        <v>18</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>2500</v>
+      </c>
+      <c r="C179">
+        <v>580</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179">
+        <v>18</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>2500</v>
+      </c>
+      <c r="C180">
+        <v>580</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180">
+        <v>18</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>2500</v>
+      </c>
+      <c r="C181">
+        <v>580</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181">
+        <v>18</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>2500</v>
+      </c>
+      <c r="C182">
+        <v>580</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182">
+        <v>18</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>2500</v>
+      </c>
+      <c r="C183">
+        <v>580</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183">
+        <v>18</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>2500</v>
+      </c>
+      <c r="C184">
+        <v>580</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184">
+        <v>18</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>2500</v>
+      </c>
+      <c r="C185">
+        <v>580</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185">
+        <v>18</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>2500</v>
+      </c>
+      <c r="C186">
+        <v>580</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186">
+        <v>18</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>2500</v>
+      </c>
+      <c r="C187">
+        <v>580</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187">
+        <v>18</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>2500</v>
+      </c>
+      <c r="C188">
+        <v>580</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188">
+        <v>18</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>2500</v>
+      </c>
+      <c r="C189">
+        <v>580</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189">
+        <v>18</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>2500</v>
+      </c>
+      <c r="C190">
+        <v>580</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190">
+        <v>18</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>2500</v>
+      </c>
+      <c r="C191">
+        <v>580</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>2500</v>
+      </c>
+      <c r="C192">
+        <v>580</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>2500</v>
+      </c>
+      <c r="C193">
+        <v>580</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193">
+        <v>18</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>2500</v>
+      </c>
+      <c r="C194">
+        <v>580</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>2500</v>
+      </c>
+      <c r="C195">
+        <v>580</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195">
+        <v>18</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>2500</v>
+      </c>
+      <c r="C196">
+        <v>580</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196">
+        <v>18</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>2500</v>
+      </c>
+      <c r="C197">
+        <v>580</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197">
+        <v>18</v>
+      </c>
+      <c r="F197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>2500</v>
+      </c>
+      <c r="C198">
+        <v>580</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198">
+        <v>18</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>2500</v>
+      </c>
+      <c r="C199">
+        <v>580</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>18</v>
+      </c>
+      <c r="F199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>2500</v>
+      </c>
+      <c r="C200">
+        <v>580</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200">
+        <v>18</v>
+      </c>
+      <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>2500</v>
+      </c>
+      <c r="C201">
+        <v>580</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+      <c r="F201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>2500</v>
+      </c>
+      <c r="C202">
+        <v>580</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202">
+        <v>18</v>
+      </c>
+      <c r="F202" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>2500</v>
+      </c>
+      <c r="C203">
+        <v>580</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <v>18</v>
+      </c>
+      <c r="F203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>2500</v>
+      </c>
+      <c r="C204">
+        <v>580</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204">
+        <v>18</v>
+      </c>
+      <c r="F204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>2500</v>
+      </c>
+      <c r="C205">
+        <v>580</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205">
+        <v>18</v>
+      </c>
+      <c r="F205" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>2500</v>
+      </c>
+      <c r="C206">
+        <v>580</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206">
+        <v>18</v>
+      </c>
+      <c r="F206" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>2500</v>
+      </c>
+      <c r="C207">
+        <v>580</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>18</v>
+      </c>
+      <c r="F207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>2500</v>
+      </c>
+      <c r="C208">
+        <v>580</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208">
+        <v>18</v>
+      </c>
+      <c r="F208" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>2500</v>
+      </c>
+      <c r="C209">
+        <v>580</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209">
+        <v>18</v>
+      </c>
+      <c r="F209" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>2500</v>
+      </c>
+      <c r="C210">
+        <v>580</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210">
+        <v>18</v>
+      </c>
+      <c r="F210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>2500</v>
+      </c>
+      <c r="C211">
+        <v>580</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>2500</v>
+      </c>
+      <c r="C212">
+        <v>580</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212">
+        <v>18</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>2500</v>
+      </c>
+      <c r="C213">
+        <v>580</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213">
+        <v>18</v>
+      </c>
+      <c r="F213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>2500</v>
+      </c>
+      <c r="C214">
+        <v>580</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214">
+        <v>18</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>2500</v>
+      </c>
+      <c r="C215">
+        <v>580</v>
+      </c>
+      <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215">
+        <v>18</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+      <c r="H215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>2500</v>
+      </c>
+      <c r="C216">
+        <v>580</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>18</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>2500</v>
+      </c>
+      <c r="C217">
+        <v>580</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <v>18</v>
+      </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
+      <c r="H217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>2500</v>
+      </c>
+      <c r="C218">
+        <v>580</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>18</v>
+      </c>
+      <c r="F218" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>2500</v>
+      </c>
+      <c r="C219">
+        <v>580</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219">
+        <v>18</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>2500</v>
+      </c>
+      <c r="C220">
+        <v>580</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220">
+        <v>18</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>2500</v>
+      </c>
+      <c r="C221">
+        <v>580</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221">
+        <v>18</v>
+      </c>
+      <c r="F221" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>2500</v>
+      </c>
+      <c r="C222">
+        <v>580</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>18</v>
+      </c>
+      <c r="F222" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>2500</v>
+      </c>
+      <c r="C223">
+        <v>580</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223">
+        <v>18</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>2500</v>
+      </c>
+      <c r="C224">
+        <v>580</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224">
+        <v>18</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>2500</v>
+      </c>
+      <c r="C225">
+        <v>580</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225">
+        <v>18</v>
+      </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>2500</v>
+      </c>
+      <c r="C226">
+        <v>580</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>18</v>
+      </c>
+      <c r="F226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>2500</v>
+      </c>
+      <c r="C227">
+        <v>580</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227">
+        <v>18</v>
+      </c>
+      <c r="F227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>2500</v>
+      </c>
+      <c r="C228">
+        <v>580</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>18</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>2500</v>
+      </c>
+      <c r="C229">
+        <v>580</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>18</v>
+      </c>
+      <c r="F229" t="s">
+        <v>13</v>
+      </c>
+      <c r="H229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>2500</v>
+      </c>
+      <c r="C230">
+        <v>580</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>18</v>
+      </c>
+      <c r="F230" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>2500</v>
+      </c>
+      <c r="C231">
+        <v>580</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231">
+        <v>18</v>
+      </c>
+      <c r="F231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>2500</v>
+      </c>
+      <c r="C232">
+        <v>580</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232">
+        <v>18</v>
+      </c>
+      <c r="F232" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>2500</v>
+      </c>
+      <c r="C233">
+        <v>580</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233">
+        <v>18</v>
+      </c>
+      <c r="F233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>2500</v>
+      </c>
+      <c r="C234">
+        <v>580</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <v>18</v>
+      </c>
+      <c r="F234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>2500</v>
+      </c>
+      <c r="C235">
+        <v>580</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235">
+        <v>18</v>
+      </c>
+      <c r="F235" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>2500</v>
+      </c>
+      <c r="C236">
+        <v>580</v>
+      </c>
+      <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236">
+        <v>18</v>
+      </c>
+      <c r="F236" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>2500</v>
+      </c>
+      <c r="C237">
+        <v>580</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>18</v>
+      </c>
+      <c r="F237" t="s">
+        <v>13</v>
+      </c>
+      <c r="H237" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>2500</v>
+      </c>
+      <c r="C238">
+        <v>580</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238">
+        <v>18</v>
+      </c>
+      <c r="F238" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>2500</v>
+      </c>
+      <c r="C239">
+        <v>580</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239">
+        <v>18</v>
+      </c>
+      <c r="F239" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>2500</v>
+      </c>
+      <c r="C240">
+        <v>580</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240">
+        <v>18</v>
+      </c>
+      <c r="F240" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>2500</v>
+      </c>
+      <c r="C241">
+        <v>580</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241">
+        <v>18</v>
+      </c>
+      <c r="F241" t="s">
+        <v>13</v>
+      </c>
+      <c r="H241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>2500</v>
+      </c>
+      <c r="C242">
+        <v>580</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242">
+        <v>18</v>
+      </c>
+      <c r="F242" t="s">
+        <v>13</v>
+      </c>
+      <c r="H242" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>2500</v>
+      </c>
+      <c r="C243">
+        <v>580</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243">
+        <v>18</v>
+      </c>
+      <c r="F243" t="s">
+        <v>13</v>
+      </c>
+      <c r="H243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>2500</v>
+      </c>
+      <c r="C244">
+        <v>580</v>
+      </c>
+      <c r="D244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>18</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>2500</v>
+      </c>
+      <c r="C245">
+        <v>580</v>
+      </c>
+      <c r="D245" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245">
+        <v>18</v>
+      </c>
+      <c r="F245" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>2500</v>
+      </c>
+      <c r="C246">
+        <v>580</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246">
+        <v>18</v>
+      </c>
+      <c r="F246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>2500</v>
+      </c>
+      <c r="C247">
+        <v>580</v>
+      </c>
+      <c r="D247" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247">
+        <v>18</v>
+      </c>
+      <c r="F247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>2500</v>
+      </c>
+      <c r="C248">
+        <v>580</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248">
+        <v>18</v>
+      </c>
+      <c r="F248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>2500</v>
+      </c>
+      <c r="C249">
+        <v>580</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>18</v>
+      </c>
+      <c r="F249" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>2500</v>
+      </c>
+      <c r="C250">
+        <v>580</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250">
+        <v>18</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>2500</v>
+      </c>
+      <c r="C251">
+        <v>580</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251">
+        <v>18</v>
+      </c>
+      <c r="F251" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>2500</v>
+      </c>
+      <c r="C252">
+        <v>580</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252">
+        <v>18</v>
+      </c>
+      <c r="F252" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>2500</v>
+      </c>
+      <c r="C253">
+        <v>580</v>
+      </c>
+      <c r="D253" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253">
+        <v>18</v>
+      </c>
+      <c r="F253" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>2500</v>
+      </c>
+      <c r="C254">
+        <v>580</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254">
+        <v>18</v>
+      </c>
+      <c r="F254" t="s">
+        <v>13</v>
+      </c>
+      <c r="H254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>2500</v>
+      </c>
+      <c r="C255">
+        <v>580</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255">
+        <v>18</v>
+      </c>
+      <c r="F255" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>2500</v>
+      </c>
+      <c r="C256">
+        <v>580</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256">
+        <v>18</v>
+      </c>
+      <c r="F256" t="s">
+        <v>13</v>
+      </c>
+      <c r="H256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>2500</v>
+      </c>
+      <c r="C257">
+        <v>580</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257">
+        <v>18</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>2500</v>
+      </c>
+      <c r="C258">
+        <v>580</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>18</v>
+      </c>
+      <c r="F258" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>2500</v>
+      </c>
+      <c r="C259">
+        <v>580</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259">
+        <v>18</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
+      <c r="H259" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <v>2500</v>
+      </c>
+      <c r="C260">
+        <v>580</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260">
+        <v>18</v>
+      </c>
+      <c r="F260" t="s">
+        <v>13</v>
+      </c>
+      <c r="H260" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>2500</v>
+      </c>
+      <c r="C261">
+        <v>580</v>
+      </c>
+      <c r="D261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261">
+        <v>18</v>
+      </c>
+      <c r="F261" t="s">
+        <v>13</v>
+      </c>
+      <c r="H261" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>2500</v>
+      </c>
+      <c r="C262">
+        <v>580</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262">
+        <v>18</v>
+      </c>
+      <c r="F262" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>2500</v>
+      </c>
+      <c r="C263">
+        <v>580</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263">
+        <v>18</v>
+      </c>
+      <c r="F263" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>2500</v>
+      </c>
+      <c r="C264">
+        <v>580</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
+      </c>
+      <c r="F264" t="s">
+        <v>13</v>
+      </c>
+      <c r="H264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>2500</v>
+      </c>
+      <c r="C265">
+        <v>580</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
+      </c>
+      <c r="F265" t="s">
+        <v>13</v>
+      </c>
+      <c r="H265" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>2500</v>
+      </c>
+      <c r="C266">
+        <v>580</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>2500</v>
+      </c>
+      <c r="C267">
+        <v>580</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
+      </c>
+      <c r="F267" t="s">
+        <v>13</v>
+      </c>
+      <c r="H267" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>2500</v>
+      </c>
+      <c r="C268">
+        <v>580</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
+      </c>
+      <c r="F268" t="s">
+        <v>13</v>
+      </c>
+      <c r="H268" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>2500</v>
+      </c>
+      <c r="C269">
+        <v>580</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269">
+        <v>18</v>
+      </c>
+      <c r="F269" t="s">
+        <v>13</v>
+      </c>
+      <c r="H269" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>2500</v>
+      </c>
+      <c r="C270">
+        <v>580</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+      <c r="H270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>2500</v>
+      </c>
+      <c r="C271">
+        <v>580</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
+      </c>
+      <c r="F271" t="s">
+        <v>13</v>
+      </c>
+      <c r="H271" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>2500</v>
+      </c>
+      <c r="C272">
+        <v>580</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272">
+        <v>18</v>
+      </c>
+      <c r="F272" t="s">
+        <v>13</v>
+      </c>
+      <c r="H272" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>2500</v>
+      </c>
+      <c r="C273">
+        <v>580</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
+      </c>
+      <c r="F273" t="s">
+        <v>13</v>
+      </c>
+      <c r="H273" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>2500</v>
+      </c>
+      <c r="C274">
+        <v>580</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274">
+        <v>18</v>
+      </c>
+      <c r="F274" t="s">
+        <v>13</v>
+      </c>
+      <c r="H274" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>2500</v>
+      </c>
+      <c r="C275">
+        <v>580</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275">
+        <v>18</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="H275" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>2500</v>
+      </c>
+      <c r="C276">
+        <v>580</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276">
+        <v>18</v>
+      </c>
+      <c r="F276" t="s">
+        <v>13</v>
+      </c>
+      <c r="H276" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>2500</v>
+      </c>
+      <c r="C277">
+        <v>580</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277">
+        <v>18</v>
+      </c>
+      <c r="F277" t="s">
+        <v>13</v>
+      </c>
+      <c r="H277" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>2500</v>
+      </c>
+      <c r="C278">
+        <v>580</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278">
+        <v>18</v>
+      </c>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>2500</v>
+      </c>
+      <c r="C279">
+        <v>580</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279">
+        <v>18</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="H279" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>2500</v>
+      </c>
+      <c r="C280">
+        <v>580</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280">
+        <v>18</v>
+      </c>
+      <c r="F280" t="s">
+        <v>13</v>
+      </c>
+      <c r="H280" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>2500</v>
+      </c>
+      <c r="C281">
+        <v>580</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281">
+        <v>18</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="H281" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>2500</v>
+      </c>
+      <c r="C282">
+        <v>580</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282">
+        <v>18</v>
+      </c>
+      <c r="F282" t="s">
+        <v>13</v>
+      </c>
+      <c r="H282" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>2500</v>
+      </c>
+      <c r="C283">
+        <v>580</v>
+      </c>
+      <c r="D283" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283">
+        <v>18</v>
+      </c>
+      <c r="F283" t="s">
+        <v>13</v>
+      </c>
+      <c r="H283" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>2500</v>
+      </c>
+      <c r="C284">
+        <v>580</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284">
+        <v>18</v>
+      </c>
+      <c r="F284" t="s">
+        <v>13</v>
+      </c>
+      <c r="H284" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>2500</v>
+      </c>
+      <c r="C285">
+        <v>580</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285">
+        <v>18</v>
+      </c>
+      <c r="F285" t="s">
+        <v>13</v>
+      </c>
+      <c r="H285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>2500</v>
+      </c>
+      <c r="C286">
+        <v>580</v>
+      </c>
+      <c r="D286" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286">
+        <v>18</v>
+      </c>
+      <c r="F286" t="s">
+        <v>13</v>
+      </c>
+      <c r="H286" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>2500</v>
+      </c>
+      <c r="C287">
+        <v>580</v>
+      </c>
+      <c r="D287" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287">
+        <v>18</v>
+      </c>
+      <c r="F287" t="s">
+        <v>13</v>
+      </c>
+      <c r="H287" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>2500</v>
+      </c>
+      <c r="C288">
+        <v>580</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288">
+        <v>18</v>
+      </c>
+      <c r="F288" t="s">
+        <v>13</v>
+      </c>
+      <c r="H288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>2500</v>
+      </c>
+      <c r="C289">
+        <v>580</v>
+      </c>
+      <c r="D289" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289">
+        <v>18</v>
+      </c>
+      <c r="F289" t="s">
+        <v>13</v>
+      </c>
+      <c r="H289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290">
+        <v>2500</v>
+      </c>
+      <c r="C290">
+        <v>580</v>
+      </c>
+      <c r="D290" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290">
+        <v>18</v>
+      </c>
+      <c r="F290" t="s">
+        <v>13</v>
+      </c>
+      <c r="H290" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>2500</v>
+      </c>
+      <c r="C291">
+        <v>580</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291">
+        <v>18</v>
+      </c>
+      <c r="F291" t="s">
+        <v>13</v>
+      </c>
+      <c r="H291" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <v>2500</v>
+      </c>
+      <c r="C292">
+        <v>580</v>
+      </c>
+      <c r="D292" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292">
+        <v>18</v>
+      </c>
+      <c r="F292" t="s">
+        <v>13</v>
+      </c>
+      <c r="H292" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>2500</v>
+      </c>
+      <c r="C293">
+        <v>580</v>
+      </c>
+      <c r="D293" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293">
+        <v>18</v>
+      </c>
+      <c r="F293" t="s">
+        <v>13</v>
+      </c>
+      <c r="H293" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>2500</v>
+      </c>
+      <c r="C294">
+        <v>580</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294">
+        <v>18</v>
+      </c>
+      <c r="F294" t="s">
+        <v>13</v>
+      </c>
+      <c r="H294" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295">
+        <v>2500</v>
+      </c>
+      <c r="C295">
+        <v>580</v>
+      </c>
+      <c r="D295" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295">
+        <v>18</v>
+      </c>
+      <c r="F295" t="s">
+        <v>13</v>
+      </c>
+      <c r="H295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>2500</v>
+      </c>
+      <c r="C296">
+        <v>580</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296">
+        <v>18</v>
+      </c>
+      <c r="F296" t="s">
+        <v>13</v>
+      </c>
+      <c r="H296" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>2500</v>
+      </c>
+      <c r="C297">
+        <v>580</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297">
+        <v>18</v>
+      </c>
+      <c r="F297" t="s">
+        <v>13</v>
+      </c>
+      <c r="H297" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <v>2500</v>
+      </c>
+      <c r="C298">
+        <v>580</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298">
+        <v>18</v>
+      </c>
+      <c r="F298" t="s">
+        <v>13</v>
+      </c>
+      <c r="H298" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>2500</v>
+      </c>
+      <c r="C299">
+        <v>580</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299">
+        <v>18</v>
+      </c>
+      <c r="F299" t="s">
+        <v>13</v>
+      </c>
+      <c r="H299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>2500</v>
+      </c>
+      <c r="C300">
+        <v>580</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300">
+        <v>18</v>
+      </c>
+      <c r="F300" t="s">
+        <v>13</v>
+      </c>
+      <c r="H300" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
